--- a/resource_api/shared/sablonlar/ceki_listesi.xlsx
+++ b/resource_api/shared/sablonlar/ceki_listesi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJELER\Doktor-Web\doktor-servis\resource_api\shared\sablonlar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJELER\NewProjects\gitPull\1\newprojectservis\resource_api\shared\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEDB1AF-3512-4BF5-B70C-F1380FAAFADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6FF5F5-7242-412D-82DA-062F05676BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F2B37F9-7E47-4AC9-ADE0-BB25CB1AF3F1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>KG</t>
   </si>
@@ -128,6 +128,9 @@
   <si>
     <t>ÇEKİ LİSTESİ</t>
   </si>
+  <si>
+    <t>Kasa Ölçüsü</t>
+  </si>
 </sst>
 </file>
 
@@ -147,6 +150,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="162"/>
     </font>
     <font>
@@ -261,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -577,13 +581,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -640,10 +670,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,12 +677,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -672,10 +692,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -699,14 +719,42 @@
     <xf numFmtId="1" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -724,7 +772,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -733,9 +781,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -751,30 +796,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1092,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C8E18B-F0C5-418E-9C9A-46A7C2DB7EC1}">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1115,150 +1141,90 @@
     <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="26"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="B4" s="31"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="B5" s="31"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="55" t="s">
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="61" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="19" t="s">
@@ -1270,15 +1236,18 @@
       <c r="L9" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="19" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1257,7 @@
       <c r="H10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="61"/>
       <c r="J10" s="19" t="s">
         <v>1</v>
       </c>
@@ -1298,8 +1267,9 @@
       <c r="L10" s="19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="69"/>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>1</v>
       </c>
@@ -1317,8 +1287,9 @@
         <f t="shared" ref="L11:L87" si="0">K11+30</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>2</v>
       </c>
@@ -1336,8 +1307,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>3</v>
       </c>
@@ -1355,8 +1327,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>4</v>
       </c>
@@ -1374,8 +1347,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>5</v>
       </c>
@@ -1393,8 +1367,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>6</v>
       </c>
@@ -1412,8 +1387,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>7</v>
       </c>
@@ -1431,8 +1407,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>8</v>
       </c>
@@ -1450,8 +1427,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>9</v>
       </c>
@@ -1469,8 +1447,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>10</v>
       </c>
@@ -1488,8 +1467,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>11</v>
       </c>
@@ -1507,8 +1487,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>12</v>
       </c>
@@ -1526,8 +1507,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>13</v>
       </c>
@@ -1545,8 +1527,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>14</v>
       </c>
@@ -1564,8 +1547,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>15</v>
       </c>
@@ -1583,8 +1567,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>16</v>
       </c>
@@ -1602,8 +1587,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>17</v>
       </c>
@@ -1621,8 +1607,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>18</v>
       </c>
@@ -1640,8 +1627,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>19</v>
       </c>
@@ -1659,8 +1647,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>20</v>
       </c>
@@ -1678,8 +1667,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>21</v>
       </c>
@@ -1697,8 +1687,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>22</v>
       </c>
@@ -1716,8 +1707,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>23</v>
       </c>
@@ -1735,8 +1727,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>24</v>
       </c>
@@ -1754,8 +1747,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>25</v>
       </c>
@@ -1773,8 +1767,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>26</v>
       </c>
@@ -1792,8 +1787,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>27</v>
       </c>
@@ -1811,8 +1807,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>28</v>
       </c>
@@ -1830,8 +1827,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>29</v>
       </c>
@@ -1849,8 +1847,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>30</v>
       </c>
@@ -1868,8 +1867,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>31</v>
       </c>
@@ -1887,8 +1887,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>32</v>
       </c>
@@ -1906,8 +1907,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>33</v>
       </c>
@@ -1925,8 +1927,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="10"/>
+    </row>
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>34</v>
       </c>
@@ -1944,8 +1947,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>35</v>
       </c>
@@ -1963,8 +1967,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>36</v>
       </c>
@@ -1982,8 +1987,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>37</v>
       </c>
@@ -2001,8 +2007,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="10"/>
+    </row>
+    <row r="48" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>38</v>
       </c>
@@ -2020,8 +2027,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M48" s="10"/>
+    </row>
+    <row r="49" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>39</v>
       </c>
@@ -2039,8 +2047,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>40</v>
       </c>
@@ -2058,8 +2067,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="10"/>
+    </row>
+    <row r="51" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>41</v>
       </c>
@@ -2077,8 +2087,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="10"/>
+    </row>
+    <row r="52" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>42</v>
       </c>
@@ -2096,8 +2107,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="10"/>
+    </row>
+    <row r="53" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>43</v>
       </c>
@@ -2115,8 +2127,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>44</v>
       </c>
@@ -2134,8 +2147,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M54" s="10"/>
+    </row>
+    <row r="55" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>45</v>
       </c>
@@ -2153,8 +2167,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="10"/>
+    </row>
+    <row r="56" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>46</v>
       </c>
@@ -2172,8 +2187,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M56" s="10"/>
+    </row>
+    <row r="57" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>47</v>
       </c>
@@ -2191,8 +2207,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M57" s="10"/>
+    </row>
+    <row r="58" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>48</v>
       </c>
@@ -2210,8 +2227,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M58" s="10"/>
+    </row>
+    <row r="59" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>49</v>
       </c>
@@ -2229,8 +2247,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M59" s="10"/>
+    </row>
+    <row r="60" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>50</v>
       </c>
@@ -2248,8 +2267,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M60" s="10"/>
+    </row>
+    <row r="61" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>51</v>
       </c>
@@ -2267,8 +2287,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M61" s="10"/>
+    </row>
+    <row r="62" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>52</v>
       </c>
@@ -2286,8 +2307,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M62" s="10"/>
+    </row>
+    <row r="63" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>53</v>
       </c>
@@ -2305,8 +2327,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="10"/>
+    </row>
+    <row r="64" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>54</v>
       </c>
@@ -2324,8 +2347,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M64" s="10"/>
+    </row>
+    <row r="65" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>55</v>
       </c>
@@ -2343,8 +2367,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M65" s="10"/>
+    </row>
+    <row r="66" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>56</v>
       </c>
@@ -2362,8 +2387,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="10"/>
+    </row>
+    <row r="67" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>57</v>
       </c>
@@ -2381,8 +2407,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M67" s="10"/>
+    </row>
+    <row r="68" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>58</v>
       </c>
@@ -2400,8 +2427,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M68" s="10"/>
+    </row>
+    <row r="69" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>59</v>
       </c>
@@ -2419,8 +2447,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="10"/>
+    </row>
+    <row r="70" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>60</v>
       </c>
@@ -2438,8 +2467,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M70" s="10"/>
+    </row>
+    <row r="71" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>61</v>
       </c>
@@ -2457,8 +2487,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M71" s="10"/>
+    </row>
+    <row r="72" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>62</v>
       </c>
@@ -2476,8 +2507,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M72" s="10"/>
+    </row>
+    <row r="73" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>63</v>
       </c>
@@ -2495,8 +2527,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="10"/>
+    </row>
+    <row r="74" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>64</v>
       </c>
@@ -2514,8 +2547,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="10"/>
+    </row>
+    <row r="75" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>65</v>
       </c>
@@ -2533,8 +2567,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="10"/>
+    </row>
+    <row r="76" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>66</v>
       </c>
@@ -2552,8 +2587,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M76" s="10"/>
+    </row>
+    <row r="77" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>67</v>
       </c>
@@ -2571,8 +2607,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M77" s="10"/>
+    </row>
+    <row r="78" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>68</v>
       </c>
@@ -2590,8 +2627,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M78" s="10"/>
+    </row>
+    <row r="79" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>69</v>
       </c>
@@ -2609,8 +2647,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M79" s="10"/>
+    </row>
+    <row r="80" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>70</v>
       </c>
@@ -2628,8 +2667,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M80" s="10"/>
+    </row>
+    <row r="81" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>71</v>
       </c>
@@ -2647,8 +2687,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="10"/>
+    </row>
+    <row r="82" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
         <v>72</v>
       </c>
@@ -2666,8 +2707,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M82" s="10"/>
+    </row>
+    <row r="83" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>73</v>
       </c>
@@ -2685,8 +2727,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M83" s="10"/>
+    </row>
+    <row r="84" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>74</v>
       </c>
@@ -2704,8 +2747,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M84" s="10"/>
+    </row>
+    <row r="85" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>75</v>
       </c>
@@ -2723,8 +2767,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M85" s="10"/>
+    </row>
+    <row r="86" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
         <v>76</v>
       </c>
@@ -2742,8 +2787,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M86" s="10"/>
+    </row>
+    <row r="87" spans="1:13" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>77</v>
       </c>
@@ -2761,13 +2807,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" s="4" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M87" s="10"/>
+    </row>
+    <row r="88" spans="1:13" s="4" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="2"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
       <c r="I88" s="6">
         <f>SUM(I11:I87)</f>
         <v>0</v>
@@ -2785,260 +2832,239 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="4" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" s="4" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="2"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
       <c r="I89" s="6"/>
       <c r="J89" s="7"/>
       <c r="K89" s="6"/>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="1:12" s="4" customFormat="1" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="31"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
+    <row r="90" spans="1:13" s="4" customFormat="1" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="27"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
       <c r="I90" s="6"/>
       <c r="J90" s="7"/>
       <c r="K90" s="6"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:12" s="4" customFormat="1" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="67" t="s">
+    <row r="91" spans="1:13" s="4" customFormat="1" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="68"/>
-      <c r="C91" s="69" t="s">
+      <c r="B91" s="51"/>
+      <c r="C91" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="70"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
       <c r="I91" s="6"/>
       <c r="J91" s="7"/>
       <c r="K91" s="6"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12" s="4" customFormat="1" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="42"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
+    <row r="92" spans="1:13" s="4" customFormat="1" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="38"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
       <c r="I92" s="6"/>
       <c r="J92" s="7"/>
       <c r="K92" s="6"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:12" s="4" customFormat="1" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="67" t="s">
+    <row r="93" spans="1:13" s="4" customFormat="1" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B93" s="68"/>
-      <c r="C93" s="71">
+      <c r="B93" s="51"/>
+      <c r="C93" s="54">
         <f>+K88</f>
         <v>0</v>
       </c>
-      <c r="D93" s="70"/>
-      <c r="E93" s="43" t="s">
+      <c r="D93" s="53"/>
+      <c r="E93" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
       <c r="I93" s="6"/>
       <c r="J93" s="7"/>
       <c r="K93" s="6"/>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" spans="1:12" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="32"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
+    <row r="94" spans="1:13" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="28"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="67" t="s">
+    <row r="95" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="68"/>
-      <c r="C95" s="71">
+      <c r="B95" s="51"/>
+      <c r="C95" s="54">
         <f>+L88</f>
         <v>2310</v>
       </c>
-      <c r="D95" s="70"/>
-      <c r="E95" s="43" t="s">
+      <c r="D95" s="53"/>
+      <c r="E95" s="39" t="s">
         <v>26</v>
       </c>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="46"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="43"/>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="40"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="39"/>
       <c r="L96" s="3"/>
     </row>
     <row r="97" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="62" t="s">
+      <c r="A97" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="48"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="48" t="s">
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48"/>
-      <c r="J97" s="48"/>
-      <c r="K97" s="48"/>
-      <c r="L97" s="57"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="47"/>
     </row>
     <row r="98" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="63"/>
-      <c r="B98" s="64"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="64"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="64"/>
-      <c r="J98" s="64"/>
-      <c r="K98" s="64"/>
-      <c r="L98" s="66"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="45"/>
+      <c r="L98" s="49"/>
     </row>
     <row r="99" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="26"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
       <c r="L99" s="3"/>
     </row>
     <row r="100" spans="1:12" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="38"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39"/>
-      <c r="K100" s="39"/>
-      <c r="L100" s="41"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="37"/>
     </row>
     <row r="101" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="62" t="s">
+      <c r="A101" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B101" s="48"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48" t="s">
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="48"/>
-      <c r="J101" s="48"/>
-      <c r="K101" s="48"/>
-      <c r="L101" s="57"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="47"/>
     </row>
     <row r="102" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="59"/>
-      <c r="H102" s="59"/>
-      <c r="I102" s="59"/>
-      <c r="J102" s="59"/>
-      <c r="K102" s="59"/>
-      <c r="L102" s="60"/>
+      <c r="A102" s="66"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="64"/>
+      <c r="J102" s="64"/>
+      <c r="K102" s="64"/>
+      <c r="L102" s="65"/>
     </row>
     <row r="103" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="24"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="22"/>
     </row>
     <row r="104" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="49"/>
-      <c r="B104" s="50"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="51"/>
-      <c r="F104" s="50"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="50"/>
-      <c r="I104" s="50"/>
-      <c r="J104" s="50"/>
-      <c r="K104" s="50"/>
-      <c r="L104" s="52"/>
-    </row>
-    <row r="105" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20"/>
-      <c r="L105" s="21"/>
-    </row>
+      <c r="A104" s="55"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="56"/>
+      <c r="J104" s="56"/>
+      <c r="K104" s="56"/>
+      <c r="L104" s="58"/>
+    </row>
+    <row r="105" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="E97:L97"/>
-    <mergeCell ref="E98:L98"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
+  <mergeCells count="26">
+    <mergeCell ref="M9:M10"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="E104:L104"/>
@@ -3055,6 +3081,15 @@
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="E97:L97"/>
+    <mergeCell ref="E98:L98"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.11811023622047245" top="0.33" bottom="0.59" header="0.33" footer="0.51181102362204722"/>
